--- a/memo/Image.xlsx
+++ b/memo/Image.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gentleduo\memo-repository\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87C3B2D-7BC2-42F6-A195-EFC86CB2573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83808290-A0A1-49B5-9C6B-7963401A4DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Row Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +67,50 @@
   </si>
   <si>
     <t>cf3:q3=val3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90qwerty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiop;asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fghjklzx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvbnm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +133,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +178,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,17 +221,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -168,6 +267,347 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A4323E-091E-7AE0-309A-54E9A62748E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1933575" y="723900"/>
+          <a:ext cx="2371725" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B122E497-5221-CE8A-153D-CA46D3393199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3362325" y="742950"/>
+          <a:ext cx="1009650" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D85190D-4994-CC69-0A05-096AB807755F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="762000"/>
+          <a:ext cx="1085850" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC785D1F-1A9B-72F6-4E67-BEB39C323618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="742950"/>
+          <a:ext cx="2447925" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EB66A5-0403-CD6C-7358-390E38DA0EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="533400"/>
+          <a:ext cx="0" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427490E5-A1CC-C1E5-B5A4-E4D8A5EE552E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4486275" y="1143000"/>
+          <a:ext cx="9525" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,24 +875,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="5"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="9" style="6"/>
+    <col min="8" max="11" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -471,9 +910,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6">
         <v>11248112</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -486,32 +925,32 @@
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
@@ -520,22 +959,22 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C6:C8"/>
@@ -544,4 +983,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616989F9-54F6-49D6-ACA3-3E605DFC3BBA}">
+  <dimension ref="C3:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="8">
+        <v>12345678</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>